--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\India\India EPS\InputData UPDATE FOR INDIA\elec\RQSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBD6EF5-C926-4C68-BE19-A8FF52319E8F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="11565"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RQSD-BRQSD" sheetId="2" r:id="rId2"/>
     <sheet name="RQSD-RQSD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>Source:</t>
   </si>
@@ -29,9 +38,6 @@
     <t>Electricity Source</t>
   </si>
   <si>
-    <t>Qualifies for RPS</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
@@ -84,12 +90,78 @@
   </si>
   <si>
     <t>https://www.mahaurja.com/meda/data/rporec/reports/MoP%20on%20Long%20term%20RPO%20trajectory.pdf</t>
+  </si>
+  <si>
+    <t>Long term growth trajectory of RPOs for solar and non-solar for 2019-20 to 2021-22</t>
+  </si>
+  <si>
+    <t>https://powermin.nic.in/sites/default/files/webform/notices/RPO_trajectory_2019-22_Order_dated_14_June_2018.pdf</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>http://www.prayaspune.org/peg/rpos.html</t>
+  </si>
+  <si>
+    <t>Current RPOs</t>
+  </si>
+  <si>
+    <t>RPO trajectory till 2022</t>
+  </si>
+  <si>
+    <t>Prayas Energy Group</t>
+  </si>
+  <si>
+    <t>Renewable Energy Data Portal</t>
+  </si>
+  <si>
+    <t>Solar and non-solar targets and compliance, All States</t>
+  </si>
+  <si>
+    <t>India RPOs are differentiated by solar and non-solar (excluding hydro).</t>
+  </si>
+  <si>
+    <t>Existing State RPOs and compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For non-solar BAU RPOs, we include wind and biomass (as some states have RPO targets </t>
+  </si>
+  <si>
+    <t>for biomass). However, the compliance with targets has been low in most states.</t>
+  </si>
+  <si>
+    <t>Biomass is excluded because it is not truly carbon-neutral, and it has other issues, such as</t>
+  </si>
+  <si>
+    <t>Nuclear is excluded because of the need to manage nuclear waste.</t>
+  </si>
+  <si>
+    <t>local air quality, competing land use, and feedstock availability challenges.</t>
+  </si>
+  <si>
+    <t>as well as it may be useful for a more ambitious RE scenario with a delayed start.</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>For non-BAU/policy RPS qualifying source definitions, we include geothermal &amp; MSW</t>
+  </si>
+  <si>
+    <t>Qualifies for RPS (Boolean)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,12 +187,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -146,6 +224,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -240,6 +319,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -275,6 +371,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -450,85 +563,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="84.5703125" customWidth="1"/>
+    <col min="4" max="4" width="73.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="19" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{DD8F12BA-98DD-4700-833B-CFCD6A499337}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{78791D4D-6C5C-4031-BDF4-82843565F5BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -536,12 +739,12 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -549,7 +752,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -557,7 +760,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -565,7 +768,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -573,7 +776,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -581,7 +784,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -589,7 +792,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -597,7 +800,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -605,15 +808,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -621,7 +824,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -629,7 +832,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <f>B2</f>
@@ -638,10 +841,34 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -650,20 +877,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,12 +898,12 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -684,7 +911,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -692,7 +919,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -700,7 +927,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -708,7 +935,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -716,7 +943,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -724,7 +951,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -732,15 +959,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -748,7 +975,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -756,7 +983,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -764,7 +991,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <f>B2</f>
@@ -773,9 +1000,33 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
         <v>1</v>
       </c>
     </row>

--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\elec\RQSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBD6EF5-C926-4C68-BE19-A8FF52319E8F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RQSD-BRQSD" sheetId="2" r:id="rId2"/>
     <sheet name="RQSD-RQSD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>Source:</t>
   </si>
@@ -140,9 +139,6 @@
     <t>local air quality, competing land use, and feedstock availability challenges.</t>
   </si>
   <si>
-    <t>as well as it may be useful for a more ambitious RE scenario with a delayed start.</t>
-  </si>
-  <si>
     <t>crude oil</t>
   </si>
   <si>
@@ -156,12 +152,18 @@
   </si>
   <si>
     <t>Qualifies for RPS (Boolean)</t>
+  </si>
+  <si>
+    <t>in addition to wind and solar as it may be useful for a more ambitious RE scenario with a delayed start.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydro is not included due to potential state-level challenges in implementing additional capacity. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -319,23 +321,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -371,23 +356,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -563,28 +531,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="84.5703125" customWidth="1"/>
-    <col min="4" max="4" width="73.5703125" customWidth="1"/>
+    <col min="2" max="2" width="84.59765625" customWidth="1"/>
+    <col min="4" max="4" width="73.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +565,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>17</v>
@@ -604,7 +574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="2">
         <v>2016</v>
       </c>
@@ -612,7 +582,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -620,7 +590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
@@ -628,89 +598,94 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{DD8F12BA-98DD-4700-833B-CFCD6A499337}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{78791D4D-6C5C-4031-BDF4-82843565F5BF}"/>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -718,166 +693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <f>B2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -887,21 +703,21 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.86328125" customWidth="1"/>
+    <col min="2" max="2" width="27.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -909,7 +725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -917,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -925,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -933,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -941,7 +757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -949,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -957,23 +773,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -981,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -989,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -998,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1006,25 +822,184 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>37</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="21.3984375" customWidth="1"/>
+    <col min="2" max="2" width="32.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
       <c r="B15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>38</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>39</v>
       </c>
       <c r="B17">
         <v>1</v>

--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -5,23 +5,28 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\RQSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="4590"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RQSD-BRQSD" sheetId="2" r:id="rId2"/>
     <sheet name="RQSD-RQSD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'RQSD-RQSD'!$A$1:$B$17</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>Source:</t>
   </si>
@@ -133,9 +138,6 @@
     <t>Biomass is excluded because it is not truly carbon-neutral, and it has other issues, such as</t>
   </si>
   <si>
-    <t>Nuclear is excluded because of the need to manage nuclear waste.</t>
-  </si>
-  <si>
     <t>local air quality, competing land use, and feedstock availability challenges.</t>
   </si>
   <si>
@@ -148,16 +150,31 @@
     <t>municipal solid waste</t>
   </si>
   <si>
-    <t>For non-BAU/policy RPS qualifying source definitions, we include geothermal &amp; MSW</t>
-  </si>
-  <si>
     <t>Qualifies for RPS (Boolean)</t>
   </si>
   <si>
     <t>in addition to wind and solar as it may be useful for a more ambitious RE scenario with a delayed start.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hydro is not included due to potential state-level challenges in implementing additional capacity. </t>
+    <t>For non-BAU/policy RPS qualifying source definitions, we include hydro, nuclear, and MSW</t>
+  </si>
+  <si>
+    <t>Nuclear is included because it provides base load for the medium term until variable RE intermittency can be managed with storage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydro is included due to India's recent policy proposal to include large hydro as an RPO qualifying source. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydro Power Obligations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Cabinet/Press Information Bureau </t>
+  </si>
+  <si>
+    <t>Cabinet Approves Measures to Promote Hydro Power Sector</t>
+  </si>
+  <si>
+    <t>https://pib.gov.in/pressreleaseshare.aspx?prid=1567817</t>
   </si>
 </sst>
 </file>
@@ -535,7 +552,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -607,10 +624,16 @@
       <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="D10" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -618,16 +641,25 @@
       <c r="B12" s="2">
         <v>2018</v>
       </c>
+      <c r="D12" s="2">
+        <v>2019</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>20</v>
       </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" s="3"/>
@@ -654,12 +686,12 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
@@ -669,12 +701,12 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
@@ -714,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -824,7 +856,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -832,7 +864,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -840,7 +872,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -859,7 +891,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -873,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -897,7 +929,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -905,7 +937,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -945,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -983,7 +1015,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -991,7 +1023,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -999,7 +1031,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>1</v>
